--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>国联安中证全指半导体产品与设备ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.24</t>
+          <t>105.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>96.24</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>501095</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004917</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券祥瑞混合A</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004918</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银证券祥瑞混合C</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159932</t>
+          <t>004917</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成中证500深市ETF</t>
+          <t>中银证券祥瑞混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.44</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003333</t>
+          <t>159932</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信智选成长灵活配置混合</t>
+          <t>大成中证500深市ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>31.11</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501095</t>
+          <t>004918</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+          <t>中银证券祥瑞混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>159995</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>华夏国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>205.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -856,15 +986,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>98.65</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>99.22</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159813</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华国证半导体芯片ETF</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.13</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159932</t>
+          <t>159813</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成中证500深市ETF</t>
+          <t>鹏华国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.33</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159995</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏国证半导体芯片ETF</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.81</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.95</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.76</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>159932</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>大成中证500深市ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2474,4 +2475,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.69</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2809,13 +2896,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2977,7 +2978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2988,17 +2989,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3008,14 +3029,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3024,14 +3067,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3040,14 +3105,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3056,14 +3143,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.69</v>
       </c>
     </row>
     <row r="6">
@@ -3072,13 +3181,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3376,7 +3377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,17 +3388,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3407,14 +3428,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.73</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -3423,14 +3518,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -3439,14 +3534,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -3455,14 +3550,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -3471,14 +3566,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>12.69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3487,13 +3582,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>12.69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.71</v>
       </c>
     </row>
@@ -666,12 +683,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.62</t>
+          <t>99.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -681,11 +698,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1393</t>
+          <t>0.1198</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +711,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1084,252 +1195,6 @@
       </c>
       <c r="H10" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3311</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1689</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1361</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1229,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1394,36 +1259,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.16</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.3311</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1432,32 +1297,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>99.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1470,36 +1335,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.1361</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1508,36 +1373,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0487</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1546,36 +1411,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>96.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1584,6 +1449,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2817,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3177,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002185-华天科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>12.69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,470 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1136,102 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.61</t>
+          <t>99.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1198</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -777,12 +1306,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.62</t>
+          <t>99.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -792,11 +1321,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1393</t>
+          <t>0.1198</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -805,6 +1334,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1195,252 +1818,6 @@
       </c>
       <c r="H10" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3311</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1689</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1361</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1852,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1505,36 +1882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.16</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.3311</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1543,32 +1920,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>99.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1581,36 +1958,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.1361</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1619,36 +1996,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0487</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1657,36 +2034,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>96.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1695,6 +2072,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2928,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3286,440 +3909,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512480</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>105.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.5804</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3973</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501095</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3478</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2206</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1376</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004917</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159932</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成中证500深市ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004546</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>31.11</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004918</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>